--- a/Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx
+++ b/Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raven\Documents\Análisis de Datos\Prácticas\Titanic - Machine Learning from Disaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216C59AD-D468-42A5-A9C2-6AF594B86935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474D34C-E69B-437B-BFC6-1EE37DA3E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{8D6A1305-4D05-4AB9-96A8-016D047BE424}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean_Data" sheetId="2" r:id="rId1"/>
     <sheet name="ETL" sheetId="4" r:id="rId2"/>
-    <sheet name="Composición de la población" sheetId="5" r:id="rId3"/>
+    <sheet name="Dashboard sheet" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Clean_Data!$A$1:$M$892</definedName>
@@ -3760,180 +3760,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="75">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <border>
         <left/>
@@ -4474,6 +4300,180 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -4539,7 +4539,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Titanic_train.xlsx]Composición de la población!TablaDinámica4</c:name>
+    <c:name>[Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx]Dashboard sheet!TablaDinámica4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4936,7 +4936,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Composición de la población'!$C$2</c:f>
+              <c:f>'Dashboard sheet'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5324,7 +5324,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Composición de la población'!$B$3:$B$23</c:f>
+              <c:f>'Dashboard sheet'!$B$3:$B$23</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -5398,7 +5398,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Composición de la población'!$C$3:$C$23</c:f>
+              <c:f>'Dashboard sheet'!$C$3:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5597,7 +5597,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Titanic_train.xlsx]Composición de la población!TablaDinámica1</c:name>
+    <c:name>[Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx]Dashboard sheet!TablaDinámica1</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -5964,7 +5964,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Composición de la población'!$S$26</c:f>
+              <c:f>'Dashboard sheet'!$S$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6174,7 +6174,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Composición de la población'!$R$27:$R$30</c:f>
+              <c:f>'Dashboard sheet'!$R$27:$R$30</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -6195,7 +6195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Composición de la población'!$S$27:$S$30</c:f>
+              <c:f>'Dashboard sheet'!$S$27:$S$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6219,7 +6219,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Composición de la población'!$T$26</c:f>
+              <c:f>'Dashboard sheet'!$T$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6325,7 +6325,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Composición de la población'!$R$27:$R$30</c:f>
+              <c:f>'Dashboard sheet'!$R$27:$R$30</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="2"/>
                 <c:lvl>
@@ -6346,7 +6346,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Composición de la población'!$T$27:$T$30</c:f>
+              <c:f>'Dashboard sheet'!$T$27:$T$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6451,7 +6451,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Titanic_train.xlsx]Composición de la población!TablaDinámica2</c:name>
+    <c:name>[Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx]Dashboard sheet!TablaDinámica2</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -6787,7 +6787,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Composición de la población'!$S$2</c:f>
+              <c:f>'Dashboard sheet'!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7008,7 +7008,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Composición de la población'!$R$3:$R$5</c:f>
+              <c:f>'Dashboard sheet'!$R$3:$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -7022,7 +7022,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Composición de la población'!$S$3:$S$5</c:f>
+              <c:f>'Dashboard sheet'!$S$3:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7046,7 +7046,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Composición de la población'!$T$2</c:f>
+              <c:f>'Dashboard sheet'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7153,7 +7153,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Composición de la población'!$R$3:$R$5</c:f>
+              <c:f>'Dashboard sheet'!$R$3:$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -7167,7 +7167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Composición de la población'!$T$3:$T$5</c:f>
+              <c:f>'Dashboard sheet'!$T$3:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -22105,205 +22105,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E214EE-5285-45AD-B2CE-0FE0B54A4F1A}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Sex">
-  <location ref="R2:T5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Record" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Record (%)" fld="6" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="12">
-    <format dxfId="11">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B5F6BB7-6E5C-4F39-8EEA-E68BC7EF8F71}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Etiquetas">
   <location ref="B2:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -22417,26 +22218,26 @@
     <dataField name="Survival (%)" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="43">
-    <format dxfId="54">
+    <format dxfId="42">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="40">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22446,7 +22247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22456,7 +22257,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22469,7 +22270,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22482,7 +22283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22495,7 +22296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22508,7 +22309,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22521,7 +22322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22534,19 +22335,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -22555,7 +22356,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22567,7 +22368,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22580,7 +22381,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22592,7 +22393,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22605,7 +22406,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22617,7 +22418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22630,7 +22431,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -22639,7 +22440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22651,7 +22452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22664,7 +22465,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22676,7 +22477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22689,7 +22490,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22701,7 +22502,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22714,17 +22515,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="11">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22734,7 +22535,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22744,7 +22545,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22757,7 +22558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22770,7 +22571,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22783,7 +22584,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22796,7 +22597,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22809,7 +22610,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22822,10 +22623,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="0">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23068,7 +22869,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF496688-6EE2-4E4F-86EF-9909F5A66655}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Survival">
   <location ref="R26:T30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -23132,26 +22933,26 @@
     <dataField name="Record (%)" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="61">
+    <format dxfId="49">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="47">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -23159,7 +22960,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -23242,6 +23043,205 @@
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E214EE-5285-45AD-B2CE-0FE0B54A4F1A}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Sex">
+  <location ref="R2:T5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Record" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Record (%)" fld="6" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="12">
+    <format dxfId="61">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="1"/>
@@ -60399,7 +60399,7 @@
   <dimension ref="B1:T30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx
+++ b/Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raven\Documents\Análisis de Datos\Prácticas\Titanic - Machine Learning from Disaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474D34C-E69B-437B-BFC6-1EE37DA3E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB60E45-F6EB-4055-A644-FD7BD0FAE667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{8D6A1305-4D05-4AB9-96A8-016D047BE424}"/>
   </bookViews>
@@ -3760,6 +3760,292 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="75">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left/>
@@ -4183,292 +4469,6 @@
           <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -8615,7 +8615,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-US" sz="1050"/>
-            <a:t> There is a direct correlation between economic class and life expectancy. A </a:t>
+            <a:t> There is a direct correlation between economic class and survival probability. A </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-US" sz="1050" b="1"/>
@@ -22105,6 +22105,399 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF496688-6EE2-4E4F-86EF-9909F5A66655}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Survival">
+  <location ref="R26:T30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Record" fld="2" subtotal="count" baseField="2" baseItem="0"/>
+    <dataField name="Record (%)" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="6">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E214EE-5285-45AD-B2CE-0FE0B54A4F1A}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Sex">
+  <location ref="R2:T5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Record" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Record (%)" fld="6" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="12">
+    <format dxfId="18">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B5F6BB7-6E5C-4F39-8EEA-E68BC7EF8F71}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Etiquetas">
   <location ref="B2:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -22218,26 +22611,26 @@
     <dataField name="Survival (%)" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="43">
-    <format dxfId="42">
+    <format dxfId="61">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="59">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22247,7 +22640,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22257,7 +22650,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22270,7 +22663,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22283,7 +22676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22296,7 +22689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22309,7 +22702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22322,7 +22715,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22335,19 +22728,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="47">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -22356,7 +22749,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="43">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22368,7 +22761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22381,7 +22774,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22393,7 +22786,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="40">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22406,7 +22799,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22418,7 +22811,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="38">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22431,7 +22824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -22440,7 +22833,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22452,7 +22845,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22465,7 +22858,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22477,7 +22870,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22490,7 +22883,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22502,7 +22895,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22515,17 +22908,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="30">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22535,7 +22928,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1" selected="0">
@@ -22545,7 +22938,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22558,7 +22951,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22571,7 +22964,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22584,7 +22977,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22597,7 +22990,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22610,7 +23003,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -22623,10 +23016,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="19">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22852,399 +23245,6 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF496688-6EE2-4E4F-86EF-9909F5A66655}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Survival">
-  <location ref="R26:T30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Record" fld="2" subtotal="count" baseField="2" baseItem="0"/>
-    <dataField name="Record (%)" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="49">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E214EE-5285-45AD-B2CE-0FE0B54A4F1A}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Sex">
-  <location ref="R2:T5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Record" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Record (%)" fld="6" subtotal="count" showDataAs="percentOfTotal" baseField="6" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="12">
-    <format dxfId="61">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="55">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="6" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -60399,7 +60399,7 @@
   <dimension ref="B1:T30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60813,7 +60813,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0xDAaDHSd3k4zrtjUiDGbGCg8lig8nW3HG+6+S0ZTwNgwZhVvyxLiDV9MjGxNc7dht2TuZy17uOsvVNWNAN7xA==" saltValue="tps+FlyCtzTPlkyveDb0rg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx
+++ b/Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raven\Documents\Análisis de Datos\Prácticas\Titanic - Machine Learning from Disaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB60E45-F6EB-4055-A644-FD7BD0FAE667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC1C0B-B020-4C68-8393-F70F60969A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{8D6A1305-4D05-4AB9-96A8-016D047BE424}"/>
   </bookViews>
@@ -4678,12 +4678,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="2.335586969883223E-2"/>
-              <c:y val="3.1397174254317113E-3"/>
-            </c:manualLayout>
-          </c:layout>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4700,7 +4694,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4710,16 +4704,6 @@
               <a:endParaRPr lang="es-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -5220,6 +5204,32 @@
                   <c:y val="3.1397174254317113E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -60399,7 +60409,7 @@
   <dimension ref="B1:T30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx
+++ b/Privilege and Survival-A Descriptive Analysis of the Titanic Disaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raven\Documents\Análisis de Datos\Prácticas\Titanic - Machine Learning from Disaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC1C0B-B020-4C68-8393-F70F60969A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD1EAE-A14B-4303-85FD-837CDE9BC73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{8D6A1305-4D05-4AB9-96A8-016D047BE424}"/>
   </bookViews>
@@ -60409,7 +60409,7 @@
   <dimension ref="B1:T30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60823,6 +60823,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="rSNNTQNoLWV5nxKOcCYBgLaPq4VLS2UCcgfKPMU1dh5OGvKv4Tf8cutCOcAUpKuDEEnCe/2DTQ63cVjFexQOQQ==" saltValue="4ShEzztx0yVDOI5xfEovkg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
 </worksheet>
